--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,57 +5,57 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\new mrcet timetable\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TIME TABLE APPLICATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22365" windowHeight="9210"/>
   </bookViews>
   <sheets>
-    <sheet name="INSTUCTION" sheetId="25" r:id="rId1"/>
+    <sheet name="INSTUCTIONS" sheetId="25" r:id="rId1"/>
     <sheet name="year2_class_name" sheetId="26" r:id="rId2"/>
     <sheet name="year3_class_name" sheetId="27" r:id="rId3"/>
     <sheet name="year4_class_name" sheetId="28" r:id="rId4"/>
     <sheet name="2 ND YEAR TIMETABLES" sheetId="39" r:id="rId5"/>
-    <sheet name="dsa2" sheetId="15" r:id="rId6"/>
-    <sheet name="teach_dsa2" sheetId="16" r:id="rId7"/>
-    <sheet name="dsb2" sheetId="21" r:id="rId8"/>
-    <sheet name="teach_dsb2" sheetId="22" r:id="rId9"/>
-    <sheet name="dsc2" sheetId="23" r:id="rId10"/>
-    <sheet name="teach_dsc2" sheetId="24" r:id="rId11"/>
-    <sheet name="cs2" sheetId="17" r:id="rId12"/>
-    <sheet name="teach_cs2" sheetId="18" r:id="rId13"/>
-    <sheet name="iot2" sheetId="19" r:id="rId14"/>
-    <sheet name="teach_iot2" sheetId="20" r:id="rId15"/>
+    <sheet name="iot2" sheetId="19" r:id="rId6"/>
+    <sheet name="teach_iot2" sheetId="20" r:id="rId7"/>
+    <sheet name="cs2" sheetId="17" r:id="rId8"/>
+    <sheet name="teach_cs2" sheetId="18" r:id="rId9"/>
+    <sheet name="dsa2" sheetId="15" r:id="rId10"/>
+    <sheet name="teach_dsa2" sheetId="16" r:id="rId11"/>
+    <sheet name="dsb2" sheetId="21" r:id="rId12"/>
+    <sheet name="teach_dsb2" sheetId="22" r:id="rId13"/>
+    <sheet name="dsc2" sheetId="23" r:id="rId14"/>
+    <sheet name="teach_dsc2" sheetId="24" r:id="rId15"/>
     <sheet name="3 RD YEAR TIMETABLES" sheetId="37" r:id="rId16"/>
-    <sheet name="dsa3" sheetId="9" r:id="rId17"/>
-    <sheet name="teach_dsa3" sheetId="10" r:id="rId18"/>
-    <sheet name="dsb3" sheetId="33" r:id="rId19"/>
-    <sheet name="teach_dsb3" sheetId="34" r:id="rId20"/>
-    <sheet name="dsc3" sheetId="35" r:id="rId21"/>
-    <sheet name="teach_dsc3" sheetId="36" r:id="rId22"/>
-    <sheet name="cs3" sheetId="11" r:id="rId23"/>
-    <sheet name="teach_cs3" sheetId="12" r:id="rId24"/>
-    <sheet name="iot3" sheetId="13" r:id="rId25"/>
-    <sheet name="teach_iot3" sheetId="14" r:id="rId26"/>
+    <sheet name="iot3" sheetId="13" r:id="rId17"/>
+    <sheet name="teach_iot3" sheetId="14" r:id="rId18"/>
+    <sheet name="cs3" sheetId="11" r:id="rId19"/>
+    <sheet name="teach_cs3" sheetId="12" r:id="rId20"/>
+    <sheet name="dsa3" sheetId="9" r:id="rId21"/>
+    <sheet name="teach_dsa3" sheetId="10" r:id="rId22"/>
+    <sheet name="dsb3" sheetId="33" r:id="rId23"/>
+    <sheet name="teach_dsb3" sheetId="34" r:id="rId24"/>
+    <sheet name="dsc3" sheetId="35" r:id="rId25"/>
+    <sheet name="teach_dsc3" sheetId="36" r:id="rId26"/>
     <sheet name="4 TH YEAR TIMETABLES" sheetId="38" r:id="rId27"/>
-    <sheet name="dsa4" sheetId="1" r:id="rId28"/>
-    <sheet name="teach_dsa4" sheetId="2" r:id="rId29"/>
-    <sheet name="dsb4" sheetId="29" r:id="rId30"/>
-    <sheet name="teach_dsb4" sheetId="30" r:id="rId31"/>
-    <sheet name="dsc4" sheetId="31" r:id="rId32"/>
-    <sheet name="teach_dsc4" sheetId="32" r:id="rId33"/>
-    <sheet name="cs4" sheetId="4" r:id="rId34"/>
-    <sheet name="teach_cs4" sheetId="5" r:id="rId35"/>
-    <sheet name="iot4" sheetId="7" r:id="rId36"/>
-    <sheet name="teach_iot4" sheetId="8" r:id="rId37"/>
+    <sheet name="iot4" sheetId="7" r:id="rId28"/>
+    <sheet name="teach_iot4" sheetId="8" r:id="rId29"/>
+    <sheet name="cs4" sheetId="4" r:id="rId30"/>
+    <sheet name="teach_cs4" sheetId="5" r:id="rId31"/>
+    <sheet name="dsa4" sheetId="1" r:id="rId32"/>
+    <sheet name="teach_dsa4" sheetId="2" r:id="rId33"/>
+    <sheet name="dsb4" sheetId="29" r:id="rId34"/>
+    <sheet name="teach_dsb4" sheetId="30" r:id="rId35"/>
+    <sheet name="dsc4" sheetId="31" r:id="rId36"/>
+    <sheet name="teach_dsc4" sheetId="32" r:id="rId37"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="80">
   <si>
     <t>TIME</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Mr . A. Anvesh/ Mrs Mrs R Annapurna P Satyavati/</t>
   </si>
   <si>
-    <t>1. Don't change structure like MON or TIME</t>
-  </si>
-  <si>
     <t>year2_class1</t>
   </si>
   <si>
@@ -266,18 +263,161 @@
   </si>
   <si>
     <t>NILL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Everthings in order so don't change them </t>
+  </si>
+  <si>
+    <t>**Note:</t>
+  </si>
+  <si>
+    <t>If in case you need any code related things you can always vist this github repo where you can find the actually code : https://github.com/Praveen880890/Mrcet_time_table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Clone the repo into your local machine </t>
+  </si>
+  <si>
+    <t>2. Here app.py is the main working file.</t>
+  </si>
+  <si>
+    <t>3. Install pyinstaller using pip command (provided python is already installed in your local machine)</t>
+  </si>
+  <si>
+    <t>4. Perform the required changes now in the files (mainly app.py and excel_test.py)</t>
+  </si>
+  <si>
+    <t>5. Now type this Command **pyinstaller --onefile -w app.py** in cmd after changing the directory to this file name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. Every </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subject code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should have the associated faculty name or the respective name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Also don't change the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sheet names </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>too</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. You can change </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Class Name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in sheets named year2_class_name or related to them </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Don't change </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Excel Sheet Table structure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>like MON or TIME</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -353,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -370,6 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,11 +815,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -686,8 +825,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>54</v>
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +1290,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -742,22 +1373,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -765,22 +1396,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -788,22 +1419,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -811,22 +1442,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -834,22 +1465,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -857,22 +1488,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -905,467 +1536,14 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1391,6 +1569,503 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1422,22 +2097,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1445,22 +2120,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1468,22 +2143,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1491,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1514,22 +2189,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1537,22 +2212,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1560,7 +2235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1585,10 +2260,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +2271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1634,22 +2309,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1657,22 +2332,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1680,22 +2355,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1703,22 +2378,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1726,22 +2401,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1749,22 +2424,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1772,74 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1864,10 +2472,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1913,22 +2521,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1936,22 +2544,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1959,22 +2567,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1982,22 +2590,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2005,22 +2613,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2028,22 +2636,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2051,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2075,444 +2683,14 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2533,18 +2711,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2575,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -2584,13 +2763,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2598,22 +2777,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2621,27 +2800,27 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -2667,22 +2846,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2690,22 +2869,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2715,127 +2894,97 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="58.85546875" customWidth="1"/>
-    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2849,7 +2998,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2860,50 +3009,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2912,432 +3061,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3525,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -3626,25 +3349,546 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="58.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -3674,22 +3918,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3697,22 +3941,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3720,45 +3964,45 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3766,22 +4010,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3789,22 +4033,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3814,22 +4058,20 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B10"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3838,74 +4080,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3929,50 +4107,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4182,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4035,22 +4213,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4058,22 +4236,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4081,22 +4259,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4104,22 +4282,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4127,22 +4305,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4150,22 +4328,22 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4178,14 +4356,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4198,10 +4376,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4214,18 +4392,13 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G7"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4256,22 +4429,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4279,22 +4452,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4302,22 +4475,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4325,22 +4498,22 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4348,22 +4521,22 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4371,45 +4544,45 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -4417,15 +4590,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>